--- a/FSSgenAI-usecases-app.xlsx
+++ b/FSSgenAI-usecases-app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgorham/Desktop/GAI-BTS-corner/usecase-streamlit/streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnl-ibm/Library/Application Support/Box/Box Edit/Documents/1257018171474/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F2B49-5244-6241-BCC4-C1A1DBB0326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D7FEE-B64F-E84D-9D2A-7E6D410EFE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="15200" windowHeight="16440" xr2:uid="{D11F41B7-F725-A74A-A6BE-CE1BFE5EC27E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D11F41B7-F725-A74A-A6BE-CE1BFE5EC27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
   <si>
     <t>Priority Area</t>
   </si>
@@ -625,6 +625,60 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>Content Generation</t>
+  </si>
+  <si>
+    <t>Summarization</t>
+  </si>
+  <si>
+    <t>Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Code Generation</t>
+  </si>
+  <si>
+    <t>Q&amp;A/ Retrieval-Augmented Generation (RAG)</t>
+  </si>
+  <si>
+    <t>Extract/ Insight Extraction</t>
+  </si>
+  <si>
+    <t>Code Explanation</t>
+  </si>
+  <si>
+    <t>Code Translation</t>
+  </si>
+  <si>
+    <t>Grammar Correction</t>
+  </si>
+  <si>
+    <t>Language Translation</t>
+  </si>
+  <si>
+    <t>State Street, State Farm</t>
+  </si>
+  <si>
+    <t>Truist</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>State Street, ADP</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>FRB (JPMC)</t>
   </si>
 </sst>
 </file>
@@ -660,14 +714,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -693,6 +739,13 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="IBM Plex Sans Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -721,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -729,12 +782,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -742,30 +804,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -774,7 +836,7 @@
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -889,25 +951,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -938,11 +981,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0165828E-05C5-0143-B5B3-B3FA3F842005}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0165828E-05C5-0143-B5B3-B3FA3F842005}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G33" xr:uid="{0165828E-05C5-0143-B5B3-B3FA3F842005}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F946DD27-F151-BC46-8DB5-81CB6D1D4B43}" name="Priority Area" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EF5E03B2-C237-4149-854F-8749B71C1C65}" name="FM Capability" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F946DD27-F151-BC46-8DB5-81CB6D1D4B43}" name="Priority Area" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{EF5E03B2-C237-4149-854F-8749B71C1C65}" name="FM Capability"/>
     <tableColumn id="2" xr3:uid="{B3D9245B-44AB-AD41-854F-B03AF3578436}" name="Use Case" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{EB0B5488-3F29-5046-8D1A-A92EA2641855}" name="Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9237955C-D366-1A4F-92EF-902B313EEA47}" name="LOB" dataDxfId="3"/>
@@ -1010,6 +1053,16 @@
     <tableColumn id="1" xr3:uid="{8F418669-3994-8D40-8ABD-9A74215AAA32}" name="Hybrid cloud platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BC0DBE94-0513-874D-ABBE-5FECC41DAFB9}" name="Table8" displayName="Table8" ref="G21:G32" totalsRowShown="0">
+  <autoFilter ref="G21:G32" xr:uid="{BC0DBE94-0513-874D-ABBE-5FECC41DAFB9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A1F12D69-60CF-7840-A9A9-9BD28670E26E}" name="FM Capability"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1312,14 +1365,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F34CA-F9D7-E047-931B-319781C9BF9F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
@@ -1336,7 +1389,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1353,11 +1406,13 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1374,18 +1429,20 @@
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
         <v>193</v>
@@ -1395,11 +1452,13 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1416,11 +1475,13 @@
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1437,11 +1498,13 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1458,11 +1521,13 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1479,11 +1544,13 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1500,18 +1567,20 @@
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
         <v>193</v>
@@ -1521,18 +1590,20 @@
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
         <v>193</v>
@@ -1542,32 +1613,36 @@
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1581,14 +1656,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="238" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1602,56 +1679,59 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>193</v>
-      </c>
       <c r="G14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1665,14 +1745,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1686,14 +1768,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1707,14 +1791,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1728,14 +1814,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1749,14 +1837,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1770,14 +1860,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1791,14 +1883,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1812,35 +1906,39 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1854,14 +1952,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1875,14 +1975,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1896,14 +1998,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1917,14 +2021,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1938,14 +2044,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1959,14 +2067,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1980,35 +2090,39 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2031,9 +2145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{288ED0F8-B4C5-A24A-B4D2-C374795B841C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E486D099-3540-E240-9821-5E49071EB272}">
           <x14:formula1>
-            <xm:f>'Sales Play'!$A$2:$A$7</xm:f>
+            <xm:f>'Sales Play'!$G$22:$G$32</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B33</xm:sqref>
         </x14:dataValidation>
@@ -2047,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C8D760-A991-C744-A81D-4E16A930D743}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C11" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2272,7 +2386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>139</v>
       </c>
@@ -2280,7 +2394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2296,85 +2410,121 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
       <c r="C22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>149</v>
       </c>
       <c r="C26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>151</v>
       </c>
       <c r="C27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
       <c r="C28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>154</v>
       </c>
       <c r="C29" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>158</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -2714,13 +2864,14 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/FSSgenAI-usecases-app.xlsx
+++ b/FSSgenAI-usecases-app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnl-ibm/Library/Application Support/Box/Box Edit/Documents/1257018171474/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgorham/Desktop/GAI-BTS-corner/usecase-streamlit/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D7FEE-B64F-E84D-9D2A-7E6D410EFE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78753688-E139-5944-B138-C97460D1B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D11F41B7-F725-A74A-A6BE-CE1BFE5EC27E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D11F41B7-F725-A74A-A6BE-CE1BFE5EC27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
   <si>
     <t>Priority Area</t>
   </si>
@@ -658,27 +658,6 @@
   </si>
   <si>
     <t>Language Translation</t>
-  </si>
-  <si>
-    <t>State Street, State Farm</t>
-  </si>
-  <si>
-    <t>Truist</t>
-  </si>
-  <si>
-    <t>Bank of America</t>
-  </si>
-  <si>
-    <t>State Street, ADP</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>Citi</t>
-  </si>
-  <si>
-    <t>FRB (JPMC)</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F34CA-F9D7-E047-931B-319781C9BF9F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1421,7 @@
         <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
         <v>193</v>
@@ -1580,7 +1559,7 @@
         <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
         <v>193</v>
@@ -1603,7 +1582,7 @@
         <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
         <v>193</v>
@@ -1626,7 +1605,7 @@
         <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
         <v>193</v>
@@ -1694,6 +1673,9 @@
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
       <c r="G14" t="s">
         <v>193</v>
       </c>
@@ -1715,7 +1697,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
         <v>193</v>
@@ -1922,7 +1904,7 @@
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
         <v>193</v>
@@ -2106,7 +2088,7 @@
         <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
         <v>193</v>
